--- a/data-raw/it_us/us/american_comunity_survey_2018/race/to_select_race.xlsx
+++ b/data-raw/it_us/us/american_comunity_survey_2018/race/to_select_race.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heverz/Documents/R_projects/covid19census/data-raw/us/american_comunity_survey_2018/race/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heverz/Documents/R_projects/covid19census/data-raw/it_us/us/american_comunity_survey_2018/race/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA45CA16-7656-6344-922B-6E6CA3DC5672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC56EC8-4576-8F47-8182-7DC65413FEA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="to_select_race" sheetId="1" r:id="rId1"/>
@@ -20,72 +20,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+  <si>
+    <t>estimate_total_not_hispanic_or_latino</t>
+  </si>
+  <si>
+    <t>estimate_total_not_hispanic_or_latino_white_alone</t>
+  </si>
+  <si>
+    <t>estimate_total_not_hispanic_or_latino_black_or_african_american_alone</t>
+  </si>
+  <si>
+    <t>estimate_total_not_hispanic_or_latino_american_indian_and_alaska_native_alone</t>
+  </si>
+  <si>
+    <t>estimate_total_not_hispanic_or_latino_asian_alone</t>
+  </si>
+  <si>
+    <t>estimate_total_not_hispanic_or_latino_native_hawaiian_and_other_pacific_islander_alone</t>
+  </si>
+  <si>
+    <t>estimate_total_not_hispanic_or_latino_some_other_race_alone</t>
+  </si>
+  <si>
+    <t>estimate_total_not_hispanic_or_latino_two_or_more_races</t>
+  </si>
+  <si>
+    <t>estimate_total_not_hispanic_or_latino_two_or_more_races_two_races_including_some_other_race</t>
+  </si>
+  <si>
+    <t>estimate_total_not_hispanic_or_latino_two_or_more_races_two_races_excluding_some_other_race_and_three_or_more_races</t>
+  </si>
+  <si>
+    <t>estimate_total_hispanic_or_latino</t>
+  </si>
+  <si>
+    <t>estimate_total_hispanic_or_latino_white_alone</t>
+  </si>
+  <si>
+    <t>estimate_total_hispanic_or_latino_black_or_african_american_alone</t>
+  </si>
+  <si>
+    <t>estimate_total_hispanic_or_latino_american_indian_and_alaska_native_alone</t>
+  </si>
+  <si>
+    <t>estimate_total_hispanic_or_latino_asian_alone</t>
+  </si>
+  <si>
+    <t>estimate_total_hispanic_or_latino_native_hawaiian_and_other_pacific_islander_alone</t>
+  </si>
+  <si>
+    <t>estimate_total_hispanic_or_latino_some_other_race_alone</t>
+  </si>
+  <si>
+    <t>estimate_total_hispanic_or_latino_two_or_more_races</t>
+  </si>
+  <si>
+    <t>estimate_total_hispanic_or_latino_two_or_more_races_two_races_including_some_other_race</t>
+  </si>
+  <si>
+    <t>estimate_total_hispanic_or_latino_two_or_more_races_two_races_excluding_some_other_race_and_three_or_more_races</t>
+  </si>
+  <si>
+    <t>new_names</t>
+  </si>
+  <si>
+    <t>old_names</t>
+  </si>
+  <si>
+    <t>total_nlat</t>
+  </si>
+  <si>
+    <t>total_nlat_white_alone</t>
+  </si>
+  <si>
+    <t>total_nlat_blackaa_alone</t>
+  </si>
+  <si>
+    <t>total_nlat_native_alone</t>
+  </si>
+  <si>
+    <t>total_nlat_asian_alone</t>
+  </si>
+  <si>
+    <t>total_nlat_island_alone</t>
+  </si>
+  <si>
+    <t>total_nlat_other_race</t>
+  </si>
+  <si>
+    <t>total_nlat_2ormore</t>
+  </si>
+  <si>
+    <t>total_nlat_2ormore_io</t>
+  </si>
+  <si>
+    <t>total_nlat_3ormore_io</t>
+  </si>
+  <si>
+    <t>total_lat</t>
+  </si>
+  <si>
+    <t>total_lat_white_alone</t>
+  </si>
+  <si>
+    <t>total_lat_blackaa_alone</t>
+  </si>
+  <si>
+    <t>total_lat_native_alone</t>
+  </si>
+  <si>
+    <t>total_lat_asian_alone</t>
+  </si>
+  <si>
+    <t>total_lat_island_alone</t>
+  </si>
+  <si>
+    <t>total_lat_other_race</t>
+  </si>
+  <si>
+    <t>total_lat_2ormore</t>
+  </si>
+  <si>
+    <t>total_lat_2ormore_io</t>
+  </si>
+  <si>
+    <t>total_lat_3ormore_io</t>
+  </si>
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>state_county</t>
+  </si>
+  <si>
     <t>geographic_area_name</t>
-  </si>
-  <si>
-    <t>estimate_total_white_alone</t>
-  </si>
-  <si>
-    <t>estimate_total_black_or_african_american_alone</t>
-  </si>
-  <si>
-    <t>estimate_total_american_indian_and_alaska_native_alone</t>
-  </si>
-  <si>
-    <t>estimate_total_asian_alone</t>
-  </si>
-  <si>
-    <t>estimate_total_native_hawaiian_and_other_pacific_islander_alone</t>
-  </si>
-  <si>
-    <t>estimate_total_some_other_race_alone</t>
-  </si>
-  <si>
-    <t>estimate_total_two_or_more_races</t>
-  </si>
-  <si>
-    <t>estimate_total_two_or_more_races_two_races_including_some_other_race</t>
-  </si>
-  <si>
-    <t>estimate_total_two_or_more_races_two_races_excluding_some_other_race_and_three_or_more_races</t>
-  </si>
-  <si>
-    <t>old_names</t>
-  </si>
-  <si>
-    <t>total_white</t>
-  </si>
-  <si>
-    <t>total_black</t>
-  </si>
-  <si>
-    <t>total_native</t>
-  </si>
-  <si>
-    <t>total_asian</t>
-  </si>
-  <si>
-    <t>total_island</t>
-  </si>
-  <si>
-    <t>total_other1race</t>
-  </si>
-  <si>
-    <t>total_2races</t>
-  </si>
-  <si>
-    <t>total_2races_other</t>
-  </si>
-  <si>
-    <t>total_2races_exlusion</t>
-  </si>
-  <si>
-    <t>new_names</t>
   </si>
 </sst>
 </file>
@@ -926,112 +995,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/it_us/us/american_comunity_survey_2018/race/to_select_race.xlsx
+++ b/data-raw/it_us/us/american_comunity_survey_2018/race/to_select_race.xlsx
@@ -1,160 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heverz/Documents/R_projects/covid19census/data-raw/it_us/us/american_comunity_survey_2018/race/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC56EC8-4576-8F47-8182-7DC65413FEA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1AD057-9AFC-C049-B32E-24A4E99C8F23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="to_select_race" sheetId="1" r:id="rId1"/>
+    <sheet name="names" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
-  <si>
-    <t>estimate_total_not_hispanic_or_latino</t>
-  </si>
-  <si>
-    <t>estimate_total_not_hispanic_or_latino_white_alone</t>
-  </si>
-  <si>
-    <t>estimate_total_not_hispanic_or_latino_black_or_african_american_alone</t>
-  </si>
-  <si>
-    <t>estimate_total_not_hispanic_or_latino_american_indian_and_alaska_native_alone</t>
-  </si>
-  <si>
-    <t>estimate_total_not_hispanic_or_latino_asian_alone</t>
-  </si>
-  <si>
-    <t>estimate_total_not_hispanic_or_latino_native_hawaiian_and_other_pacific_islander_alone</t>
-  </si>
-  <si>
-    <t>estimate_total_not_hispanic_or_latino_some_other_race_alone</t>
-  </si>
-  <si>
-    <t>estimate_total_not_hispanic_or_latino_two_or_more_races</t>
-  </si>
-  <si>
-    <t>estimate_total_not_hispanic_or_latino_two_or_more_races_two_races_including_some_other_race</t>
-  </si>
-  <si>
-    <t>estimate_total_not_hispanic_or_latino_two_or_more_races_two_races_excluding_some_other_race_and_three_or_more_races</t>
-  </si>
-  <si>
-    <t>estimate_total_hispanic_or_latino</t>
-  </si>
-  <si>
-    <t>estimate_total_hispanic_or_latino_white_alone</t>
-  </si>
-  <si>
-    <t>estimate_total_hispanic_or_latino_black_or_african_american_alone</t>
-  </si>
-  <si>
-    <t>estimate_total_hispanic_or_latino_american_indian_and_alaska_native_alone</t>
-  </si>
-  <si>
-    <t>estimate_total_hispanic_or_latino_asian_alone</t>
-  </si>
-  <si>
-    <t>estimate_total_hispanic_or_latino_native_hawaiian_and_other_pacific_islander_alone</t>
-  </si>
-  <si>
-    <t>estimate_total_hispanic_or_latino_some_other_race_alone</t>
-  </si>
-  <si>
-    <t>estimate_total_hispanic_or_latino_two_or_more_races</t>
-  </si>
-  <si>
-    <t>estimate_total_hispanic_or_latino_two_or_more_races_two_races_including_some_other_race</t>
-  </si>
-  <si>
-    <t>estimate_total_hispanic_or_latino_two_or_more_races_two_races_excluding_some_other_race_and_three_or_more_races</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>geographic_area_name</t>
+  </si>
+  <si>
+    <t>estimate_race_total_population_one_race_white</t>
+  </si>
+  <si>
+    <t>estimate_race_total_population_one_race_black_or_african_american</t>
+  </si>
+  <si>
+    <t>estimate_race_total_population_one_race_american_indian_and_alaska_native</t>
+  </si>
+  <si>
+    <t>estimate_race_total_population_one_race_asian</t>
+  </si>
+  <si>
+    <t>estimate_race_total_population_one_race_native_hawaiian_and_other_pacific_islander</t>
+  </si>
+  <si>
+    <t>estimate_race_total_population_one_race_some_other_race</t>
+  </si>
+  <si>
+    <t>estimate_race_total_population_two_or_more_races_108</t>
+  </si>
+  <si>
+    <t>estimate_hispanic_or_latino_and_race_total_population</t>
+  </si>
+  <si>
+    <t>old_names</t>
   </si>
   <si>
     <t>new_names</t>
   </si>
   <si>
-    <t>old_names</t>
-  </si>
-  <si>
-    <t>total_nlat</t>
-  </si>
-  <si>
-    <t>total_nlat_white_alone</t>
-  </si>
-  <si>
-    <t>total_nlat_blackaa_alone</t>
-  </si>
-  <si>
-    <t>total_nlat_native_alone</t>
-  </si>
-  <si>
-    <t>total_nlat_asian_alone</t>
-  </si>
-  <si>
-    <t>total_nlat_island_alone</t>
-  </si>
-  <si>
-    <t>total_nlat_other_race</t>
-  </si>
-  <si>
-    <t>total_nlat_2ormore</t>
-  </si>
-  <si>
-    <t>total_nlat_2ormore_io</t>
-  </si>
-  <si>
-    <t>total_nlat_3ormore_io</t>
-  </si>
-  <si>
-    <t>total_lat</t>
-  </si>
-  <si>
-    <t>total_lat_white_alone</t>
-  </si>
-  <si>
-    <t>total_lat_blackaa_alone</t>
-  </si>
-  <si>
-    <t>total_lat_native_alone</t>
-  </si>
-  <si>
-    <t>total_lat_asian_alone</t>
-  </si>
-  <si>
-    <t>total_lat_island_alone</t>
-  </si>
-  <si>
-    <t>total_lat_other_race</t>
-  </si>
-  <si>
-    <t>total_lat_2ormore</t>
-  </si>
-  <si>
-    <t>total_lat_2ormore_io</t>
-  </si>
-  <si>
-    <t>total_lat_3ormore_io</t>
-  </si>
-  <si>
-    <t>id</t>
+    <t>white</t>
+  </si>
+  <si>
+    <t>black_afroamerican</t>
+  </si>
+  <si>
+    <t>native</t>
+  </si>
+  <si>
+    <t>asian</t>
+  </si>
+  <si>
+    <t>other_race</t>
+  </si>
+  <si>
+    <t>two_more_races</t>
+  </si>
+  <si>
+    <t>latino</t>
   </si>
   <si>
     <t>state_county</t>
   </si>
   <si>
-    <t>geographic_area_name</t>
+    <t>pacific_islander</t>
   </si>
 </sst>
 </file>
@@ -995,200 +923,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/it_us/us/american_comunity_survey_2018/race/to_select_race.xlsx
+++ b/data-raw/it_us/us/american_comunity_survey_2018/race/to_select_race.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heverz/Documents/R_projects/covid19census/data-raw/it_us/us/american_comunity_survey_2018/race/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1AD057-9AFC-C049-B32E-24A4E99C8F23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990BE97A-1117-5443-A54F-F5DAB2B1BAEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3640" yWindow="-21140" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="names" sheetId="1" r:id="rId1"/>
@@ -49,40 +49,40 @@
     <t>estimate_race_total_population_two_or_more_races_108</t>
   </si>
   <si>
-    <t>estimate_hispanic_or_latino_and_race_total_population</t>
-  </si>
-  <si>
     <t>old_names</t>
   </si>
   <si>
     <t>new_names</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>black_afroamerican</t>
-  </si>
-  <si>
-    <t>native</t>
-  </si>
-  <si>
-    <t>asian</t>
-  </si>
-  <si>
-    <t>other_race</t>
-  </si>
-  <si>
-    <t>two_more_races</t>
-  </si>
-  <si>
-    <t>latino</t>
-  </si>
-  <si>
     <t>state_county</t>
   </si>
   <si>
-    <t>pacific_islander</t>
+    <t>estimate_hispanic_or_latino_and_race_total_population_hispanic_or_latino_of_any_race</t>
+  </si>
+  <si>
+    <t>total_white</t>
+  </si>
+  <si>
+    <t>total_black_afroamerican</t>
+  </si>
+  <si>
+    <t>total_native</t>
+  </si>
+  <si>
+    <t>total_asian</t>
+  </si>
+  <si>
+    <t>total_pacific_islander</t>
+  </si>
+  <si>
+    <t>total_other_race</t>
+  </si>
+  <si>
+    <t>total_two_more_races</t>
+  </si>
+  <si>
+    <t>total_latino</t>
   </si>
 </sst>
 </file>
@@ -926,7 +926,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,10 +936,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -952,7 +952,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/it_us/us/american_comunity_survey_2018/race/to_select_race.xlsx
+++ b/data-raw/it_us/us/american_comunity_survey_2018/race/to_select_race.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heverz/Documents/R_projects/covid19census/data-raw/it_us/us/american_comunity_survey_2018/race/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990BE97A-1117-5443-A54F-F5DAB2B1BAEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC44871-4935-094E-83C5-C65EC9AF2A10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3640" yWindow="-21140" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>total_white</t>
   </si>
   <si>
-    <t>total_black_afroamerican</t>
-  </si>
-  <si>
     <t>total_native</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>total_latino</t>
+  </si>
+  <si>
+    <t>total_black</t>
   </si>
 </sst>
 </file>
@@ -926,7 +926,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -968,7 +968,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
